--- a/67mm_05_24/5_24_67mm.xlsx
+++ b/67mm_05_24/5_24_67mm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Google Drive\Seminarfach\09_Messung\Testmessung007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Projects\pyt_Semi\67mm_05_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A401F629-6931-42AB-A63F-43910856DC28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39354DE-0F3B-4A90-81B4-7DB69C7C92A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Fliessgeschwindigkeit [m/s]</t>
   </si>
@@ -65,16 +65,25 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>FW</t>
   </si>
   <si>
-    <t>FA</t>
+    <t>Kontrolle</t>
   </si>
   <si>
-    <t>Kontrolle</t>
+    <t>experimentell neu</t>
+  </si>
+  <si>
+    <t>Winkel neu [deg]</t>
+  </si>
+  <si>
+    <t>Standardabweichung neu [deg]</t>
+  </si>
+  <si>
+    <t>Kontrolle neu</t>
+  </si>
+  <si>
+    <t>1/tan(a)</t>
   </si>
 </sst>
 </file>
@@ -417,39 +426,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3595187430768569E-4</c:v>
+                  <c:v>2.359518743076858E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3977069900306738E-4</c:v>
+                  <c:v>3.3977069900306749E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6246567364306398E-4</c:v>
+                  <c:v>4.6246567364306419E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0403679822767543E-4</c:v>
+                  <c:v>6.0403679822767565E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6448407275690169E-4</c:v>
+                  <c:v>7.6448407275690202E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.4380749723074287E-4</c:v>
+                  <c:v>9.4380749723074319E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1420070716491989E-3</c:v>
+                  <c:v>1.1420070716491992E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.3590827960122699E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.595034670319956E-3</c:v>
+                  <c:v>1.5950346703199551E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8498626945722559E-3</c:v>
+                  <c:v>1.8498626945722557E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$12</c:f>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -647,7 +656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1058,7 +1067,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> von "a" und "b"</a:t>
+              <a:t> von "a" und "b" ohne Glasbrechung</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1107,16 +1116,14 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1230,7 +1237,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:f>Sheet1!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1269,7 +1276,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:f>Sheet1!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1306,7 +1313,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DEE-4E30-8EE3-08F482EB02EF}"/>
@@ -1500,6 +1507,1290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Ermittlung</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> von "a" und "b" mit Glasbrechung</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>364.2439189249535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.94716592010664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185.83873414538442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.28278083005995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.42096263115849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.060979731238376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.257008042345774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.23679148002666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.882236527360014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.459683536346127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.3744449340014242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5838761535060799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1056525696527064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9417716909729554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4419659401686604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.110766005693963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9198529958689592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5262408881082985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1127626779376949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0670170707382076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2689-4BDB-A722-13BC989BAA84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524058064"/>
+        <c:axId val="524059048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524058064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524059048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524059048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524058064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vergleich Strömungswiderstand</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Experimentell</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1152727159842534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623139161775399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14671072943450431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.359518743076858E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3977069900306749E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6246567364306419E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0403679822767565E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6448407275690202E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4380749723074319E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1420070716491992E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3590827960122699E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5950346703199551E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8498626945722557E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8E7-4E94-8EA3-4B05B11C2428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Experimentell mit Glasbrechung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1152727159842534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623139161775399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14671072943450431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5681042636666804E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1380701396800191E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9934843567866938E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1343469149867014E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1560657814280045E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4272417054666722E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.726962463614673E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0552280558720076E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4120384822386744E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7973937427146762E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8E7-4E94-8EA3-4B05B11C2428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Analytisch</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1152727159842534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623139161775399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14671072943450431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4640283716778933E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4651430039764985E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.635693955596109E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9756812265367314E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4851048167983591E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1639647263809954E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1012260955284643E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3029993503509301E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5217162371054962E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7573767557921624E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8E7-4E94-8EA3-4B05B11C2428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Numerisch</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2396689083751551E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2876026900501855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3355364717252167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3834702534002478E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.431404035075279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1047933781675031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1152727159842534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12575205380100371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13623139161775399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14671072943450431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.7194000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3577800000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1014000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0943E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2889999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4935E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.707E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9317E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1667799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4105E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E8E7-4E94-8EA3-4B05B11C2428}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="493780904"/>
+        <c:axId val="308854008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="493780904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strömungsgeschwindigkeit [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308854008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="308854008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Strömungswiderstand [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493780904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1580,6 +2871,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2097,6 +3468,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2617,15 +5020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2652,16 +5055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2681,6 +5084,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C454B5B-DEB2-4350-8DE0-D68AB78A361D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>288924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>882649</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F1FDB1-7D61-4093-BEEC-FE150D85F6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3010,25 +5485,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3039,52 +5518,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="Q1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
+      <c r="O2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>5.2396689083751551E-2</v>
       </c>
@@ -3095,38 +5592,53 @@
         <v>0.62860000000000005</v>
       </c>
       <c r="D3" s="2">
+        <v>82.277600000000007</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="F3" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>5.8735336001881008E-5</v>
       </c>
-      <c r="F3" s="4">
-        <v>2.3595187430768569E-4</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
+        <f>O3</f>
+        <v>2.359518743076858E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <f>R3</f>
+        <v>3.5681042636666804E-4</v>
+      </c>
+      <c r="J3" s="4">
         <v>2.4640283716778933E-5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="K3" s="10">
         <v>5.7194000000000002E-5</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <f>1/(A3*A3)</f>
         <v>364.2439189249535</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <f>1/TAN(RADIANS(90-B3))</f>
         <v>11.73089186421733</v>
       </c>
-      <c r="L3" s="7">
-        <f>((9.81*0.0002675)/0.0305)*A3^2</f>
-        <v>2.3621128622847588E-4</v>
-      </c>
-      <c r="M3">
-        <f>L3*(0.2489)</f>
-        <v>5.8792989142267648E-5</v>
+      <c r="O3" s="7">
+        <f>((9.81*0.0002675)/$M$15)*A3^2</f>
+        <v>2.359518743076858E-4</v>
+      </c>
+      <c r="Q3">
+        <f>1/TAN(RADIANS(90-D3))</f>
+        <v>7.3744449340014242</v>
+      </c>
+      <c r="R3" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A3^2</f>
+        <v>3.5681042636666804E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>6.2876026900501855E-2</v>
       </c>
@@ -3137,38 +5649,53 @@
         <v>0.57889999999999997</v>
       </c>
       <c r="D4" s="2">
+        <v>79.846699999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.9842</v>
+      </c>
+      <c r="F4" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>8.4578883842708645E-5</v>
       </c>
-      <c r="F4" s="4">
-        <v>3.3977069900306738E-4</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H12" si="0">O4</f>
+        <v>3.3977069900306749E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I12" si="1">R4</f>
+        <v>5.1380701396800191E-4</v>
+      </c>
+      <c r="J4" s="4">
         <v>3.4651430039764985E-5</v>
       </c>
-      <c r="H4" s="10">
+      <c r="K4" s="10">
         <v>7.3577800000000006E-5</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J12" si="0">1/(A4*A4)</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="2">1/(A4*A4)</f>
         <v>252.94716592010664</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K12" si="1">1/TAN(RADIANS(90-B4))</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="3">1/TAN(RADIANS(90-B4))</f>
         <v>6.4658769895369765</v>
       </c>
-      <c r="L4" s="7">
-        <f t="shared" ref="L4:L12" si="2">((9.81*0.0002675)/0.0305)*A4^2</f>
-        <v>3.401442521690052E-4</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M12" si="3">L4*(0.2489)</f>
-        <v>8.4661904364865393E-5</v>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:O12" si="4">((9.81*0.0002675)/$M$15)*A4^2</f>
+        <v>3.3977069900306749E-4</v>
+      </c>
+      <c r="Q4">
+        <f>1/TAN(RADIANS(90-D4))</f>
+        <v>5.5838761535060799</v>
+      </c>
+      <c r="R4" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A4^2</f>
+        <v>5.1380701396800191E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>7.3355364717252167E-2</v>
       </c>
@@ -3179,38 +5706,53 @@
         <v>0.83040000000000003</v>
       </c>
       <c r="D5" s="2">
+        <v>76.311199999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.6542</v>
+      </c>
+      <c r="F5" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>1.151212585636868E-4</v>
       </c>
-      <c r="F5" s="4">
-        <v>4.6246567364306398E-4</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6246567364306419E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9934843567866938E-4</v>
+      </c>
+      <c r="J5" s="4">
         <v>4.635693955596109E-5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="K5" s="10">
         <v>9.1014000000000006E-5</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
+      <c r="M5">
+        <f t="shared" si="2"/>
         <v>185.83873414538442</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
+      <c r="N5">
+        <f t="shared" si="3"/>
         <v>4.9890110171927802</v>
       </c>
-      <c r="L5" s="7">
-        <f t="shared" si="2"/>
-        <v>4.6297412100781271E-4</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>1.1523425871884459E-4</v>
+      <c r="O5" s="7">
+        <f t="shared" si="4"/>
+        <v>4.6246567364306419E-4</v>
+      </c>
+      <c r="Q5">
+        <f>1/TAN(RADIANS(90-D5))</f>
+        <v>4.1056525696527064</v>
+      </c>
+      <c r="R5" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A5^2</f>
+        <v>6.9934843567866938E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>8.3834702534002478E-2</v>
       </c>
@@ -3221,38 +5763,53 @@
         <v>1.3257399999999999</v>
       </c>
       <c r="D6" s="2">
+        <v>71.225499999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1499000000000001</v>
+      </c>
+      <c r="F6" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>1.503624601648154E-4</v>
       </c>
-      <c r="F6" s="4">
-        <v>6.0403679822767543E-4</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0403679822767565E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1343469149867014E-4</v>
+      </c>
+      <c r="J6" s="4">
         <v>5.9756812265367314E-5</v>
       </c>
-      <c r="H6" s="10">
+      <c r="K6" s="10">
         <v>1.0943E-4</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="M6">
+        <f t="shared" si="2"/>
         <v>142.28278083005995</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="N6">
+        <f t="shared" si="3"/>
         <v>3.9702844643229804</v>
       </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
-        <v>6.047008927448982E-4</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>1.5051005220420517E-4</v>
+      <c r="O6" s="7">
+        <f t="shared" si="4"/>
+        <v>6.0403679822767565E-4</v>
+      </c>
+      <c r="Q6">
+        <f>1/TAN(RADIANS(90-D6))</f>
+        <v>2.9417716909729554</v>
+      </c>
+      <c r="R6" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A6^2</f>
+        <v>9.1343469149867014E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>9.431404035075279E-2</v>
       </c>
@@ -3263,38 +5820,53 @@
         <v>0.88190000000000002</v>
       </c>
       <c r="D7" s="2">
+        <v>67.730599999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1267</v>
+      </c>
+      <c r="F7" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>1.903024886460945E-4</v>
       </c>
-      <c r="F7" s="4">
-        <v>7.6448407275690169E-4</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6448407275690202E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1560657814280045E-3</v>
+      </c>
+      <c r="J7" s="4">
         <v>7.4851048167983591E-5</v>
       </c>
-      <c r="H7" s="10">
+      <c r="K7" s="10">
         <v>1.2889999999999999E-4</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
+      <c r="M7">
+        <f t="shared" si="2"/>
         <v>112.42096263115849</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
+      <c r="N7">
+        <f t="shared" si="3"/>
         <v>2.9460739324149001</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="2"/>
-        <v>7.6532456738026187E-4</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>1.9048928482094719E-4</v>
+      <c r="O7" s="7">
+        <f t="shared" si="4"/>
+        <v>7.6448407275690202E-4</v>
+      </c>
+      <c r="Q7">
+        <f>1/TAN(RADIANS(90-D7))</f>
+        <v>2.4419659401686604</v>
+      </c>
+      <c r="R7" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A7^2</f>
+        <v>1.1560657814280045E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>0.1047933781675031</v>
       </c>
@@ -3305,38 +5877,53 @@
         <v>1.9957</v>
       </c>
       <c r="D8" s="2">
+        <v>64.650199999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.7497</v>
+      </c>
+      <c r="F8" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>2.3494134400752411E-4</v>
       </c>
-      <c r="F8" s="4">
-        <v>9.4380749723074287E-4</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4380749723074319E-4</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4272417054666722E-3</v>
+      </c>
+      <c r="J8" s="4">
         <v>9.1639647263809954E-5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="K8" s="10">
         <v>1.4935E-4</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="M8">
+        <f t="shared" si="2"/>
         <v>91.060979731238376</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
+      <c r="N8">
+        <f t="shared" si="3"/>
         <v>2.7103563886867215</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="2"/>
-        <v>9.4484514491390351E-4</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>2.3517195656907059E-4</v>
+      <c r="O8" s="7">
+        <f t="shared" si="4"/>
+        <v>9.4380749723074319E-4</v>
+      </c>
+      <c r="Q8">
+        <f>1/TAN(RADIANS(90-D8))</f>
+        <v>2.110766005693963</v>
+      </c>
+      <c r="R8" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A8^2</f>
+        <v>1.4272417054666722E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>0.1152727159842534</v>
       </c>
@@ -3347,38 +5934,53 @@
         <v>3.6979000000000002</v>
       </c>
       <c r="D9" s="2">
+        <v>62.486199999999997</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.6320999999999999</v>
+      </c>
+      <c r="F9" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>2.8427902624910409E-4</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.1420070716491989E-3</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1420070716491992E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.726962463614673E-3</v>
+      </c>
+      <c r="J9" s="4">
         <v>1.1012260955284643E-4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="K9" s="4">
         <v>1.707E-4</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
+      <c r="M9">
+        <f t="shared" si="2"/>
         <v>75.257008042345774</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
+      <c r="N9">
+        <f t="shared" si="3"/>
         <v>2.4389915430732638</v>
       </c>
-      <c r="L9" s="7">
-        <f t="shared" si="2"/>
-        <v>1.143262625345823E-3</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>2.8455806744857534E-4</v>
+      <c r="O9" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1420070716491992E-3</v>
+      </c>
+      <c r="Q9">
+        <f>1/TAN(RADIANS(90-D9))</f>
+        <v>1.9198529958689592</v>
+      </c>
+      <c r="R9" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A9^2</f>
+        <v>1.726962463614673E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>0.12575205380100371</v>
       </c>
@@ -3389,38 +5991,53 @@
         <v>1.8953</v>
       </c>
       <c r="D10" s="2">
+        <v>56.767000000000003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.37246</v>
+      </c>
+      <c r="F10" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>3.3831553537083458E-4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
         <v>1.3590827960122699E-3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0552280558720076E-3</v>
+      </c>
+      <c r="J10" s="4">
         <v>1.3029993503509301E-4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="K10" s="4">
         <v>1.9317E-4</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
+      <c r="M10">
+        <f t="shared" si="2"/>
         <v>63.23679148002666</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="N10">
+        <f t="shared" si="3"/>
         <v>1.9785136079040608</v>
       </c>
-      <c r="L10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3605770086760208E-3</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>3.3864761745946157E-4</v>
+      <c r="O10" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3590827960122699E-3</v>
+      </c>
+      <c r="Q10">
+        <f>1/TAN(RADIANS(90-D10))</f>
+        <v>1.5262408881082985</v>
+      </c>
+      <c r="R10" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A10^2</f>
+        <v>2.0552280558720076E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>0.13623139161775399</v>
       </c>
@@ -3431,38 +6048,53 @@
         <v>1.7393000000000001</v>
       </c>
       <c r="D11" s="2">
+        <v>48.055100000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.5778000000000001</v>
+      </c>
+      <c r="F11" s="2">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>3.9705087137271571E-4</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.595034670319956E-3</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5950346703199551E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4120384822386744E-3</v>
+      </c>
+      <c r="J11" s="4">
         <v>1.5217162371054962E-4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="K11" s="4">
         <v>2.1667799999999999E-4</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="M11">
+        <f t="shared" si="2"/>
         <v>53.882236527360014</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
+      <c r="N11">
+        <f t="shared" si="3"/>
         <v>1.3755941460323931</v>
       </c>
-      <c r="L11" s="7">
-        <f t="shared" si="2"/>
-        <v>1.596788294904496E-3</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>3.9744060660172907E-4</v>
+      <c r="O11" s="7">
+        <f t="shared" si="4"/>
+        <v>1.5950346703199551E-3</v>
+      </c>
+      <c r="Q11">
+        <f>1/TAN(RADIANS(90-D11))</f>
+        <v>1.1127626779376949</v>
+      </c>
+      <c r="R11" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A11^2</f>
+        <v>2.4120384822386744E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>0.14671072943450431</v>
       </c>
@@ -3473,57 +6105,75 @@
         <v>1.9466000000000001</v>
       </c>
       <c r="D12" s="3">
+        <v>46.856999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.635</v>
+      </c>
+      <c r="F12" s="3">
         <v>2.6241749999999999E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4.6048503425474721E-4</v>
       </c>
-      <c r="F12" s="5">
-        <v>1.8498626945722559E-3</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8498626945722557E-3</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7973937427146762E-3</v>
+      </c>
+      <c r="J12" s="5">
         <v>1.7573767557921624E-4</v>
       </c>
-      <c r="H12" s="5">
+      <c r="K12" s="5">
         <v>2.4105E-4</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
+      <c r="M12">
+        <f t="shared" si="2"/>
         <v>46.459683536346127</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
+      <c r="N12">
+        <f t="shared" si="3"/>
         <v>1.2743667391194795</v>
       </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>1.85189648403125E-3</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>4.6093703487537816E-4</v>
+      <c r="O12" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8498626945722557E-3</v>
+      </c>
+      <c r="Q12">
+        <f>1/TAN(RADIANS(90-D12))</f>
+        <v>1.0670170707382076</v>
+      </c>
+      <c r="R12" s="7">
+        <f>((9.81*0.0002675)/$Q$15)*A12^2</f>
+        <v>2.7973937427146762E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
-        <v>12</v>
+      <c r="Q14" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15" s="8">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="K15">
-        <v>-0.24890000000000001</v>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M15" s="8">
+        <f>LINEST(N3:N12,M3:M12)</f>
+        <v>3.053353253118803E-2</v>
+      </c>
+      <c r="Q15">
+        <f>LINEST(Q3:Q12,M3:M12)</f>
+        <v>2.0191237972864144E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
